--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Calcrl</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H2">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I2">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J2">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.7610682637922</v>
+        <v>54.08088833333333</v>
       </c>
       <c r="N2">
-        <v>45.7610682637922</v>
+        <v>162.242665</v>
       </c>
       <c r="O2">
-        <v>0.5183735547398972</v>
+        <v>0.5501595266871954</v>
       </c>
       <c r="P2">
-        <v>0.5183735547398972</v>
+        <v>0.5736166769323061</v>
       </c>
       <c r="Q2">
-        <v>582.8236644553218</v>
+        <v>692.9670490318911</v>
       </c>
       <c r="R2">
-        <v>582.8236644553218</v>
+        <v>6236.703441287019</v>
       </c>
       <c r="S2">
-        <v>0.195543984736911</v>
+        <v>0.190995031194114</v>
       </c>
       <c r="T2">
-        <v>0.195543984736911</v>
+        <v>0.2042727102301019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H3">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I3">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J3">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5263865217039</v>
+        <v>14.22188666666667</v>
       </c>
       <c r="N3">
-        <v>13.5263865217039</v>
+        <v>42.66566</v>
       </c>
       <c r="O3">
-        <v>0.1532245930890868</v>
+        <v>0.1446778460610026</v>
       </c>
       <c r="P3">
-        <v>0.1532245930890868</v>
+        <v>0.1508464749905558</v>
       </c>
       <c r="Q3">
-        <v>172.275221242076</v>
+        <v>182.2325619786756</v>
       </c>
       <c r="R3">
-        <v>172.275221242076</v>
+        <v>1640.09305780808</v>
       </c>
       <c r="S3">
-        <v>0.05780030099599855</v>
+        <v>0.05022679492239273</v>
       </c>
       <c r="T3">
-        <v>0.05780030099599855</v>
+        <v>0.05371848398789585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H4">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I4">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J4">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.4743414762298</v>
+        <v>7.863198666666666</v>
       </c>
       <c r="N4">
-        <v>7.4743414762298</v>
+        <v>23.589596</v>
       </c>
       <c r="O4">
-        <v>0.08466806190009199</v>
+        <v>0.07999154211441335</v>
       </c>
       <c r="P4">
-        <v>0.08466806190009199</v>
+        <v>0.08340214127828596</v>
       </c>
       <c r="Q4">
-        <v>95.194960560251</v>
+        <v>100.7553267691609</v>
       </c>
       <c r="R4">
-        <v>95.194960560251</v>
+        <v>906.797940922448</v>
       </c>
       <c r="S4">
-        <v>0.03193899467383679</v>
+        <v>0.02777010365230716</v>
       </c>
       <c r="T4">
-        <v>0.03193899467383679</v>
+        <v>0.02970063828865959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H5">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I5">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J5">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.94805548262573</v>
+        <v>10.07488533333333</v>
       </c>
       <c r="N5">
-        <v>9.94805548262573</v>
+        <v>30.224656</v>
       </c>
       <c r="O5">
-        <v>0.1126898710832473</v>
+        <v>0.102490811767936</v>
       </c>
       <c r="P5">
-        <v>0.1126898710832473</v>
+        <v>0.1068607122309171</v>
       </c>
       <c r="Q5">
-        <v>126.7007605059854</v>
+        <v>129.0948387486364</v>
       </c>
       <c r="R5">
-        <v>126.7007605059854</v>
+        <v>1161.853548737728</v>
       </c>
       <c r="S5">
-        <v>0.04250954978242251</v>
+        <v>0.0355810175797554</v>
       </c>
       <c r="T5">
-        <v>0.04250954978242251</v>
+        <v>0.03805455486627091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H6">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I6">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J6">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.5683172427866</v>
+        <v>12.059517</v>
       </c>
       <c r="N6">
-        <v>11.5683172427866</v>
+        <v>24.119034</v>
       </c>
       <c r="O6">
-        <v>0.1310439191876766</v>
+        <v>0.1226802733694528</v>
       </c>
       <c r="P6">
-        <v>0.1310439191876766</v>
+        <v>0.08527399456793505</v>
       </c>
       <c r="Q6">
-        <v>147.3367931044851</v>
+        <v>154.524974825332</v>
       </c>
       <c r="R6">
-        <v>147.3367931044851</v>
+        <v>927.1498489519919</v>
       </c>
       <c r="S6">
-        <v>0.04943317400973075</v>
+        <v>0.04259005161683485</v>
       </c>
       <c r="T6">
-        <v>0.04943317400973075</v>
+        <v>0.03036723073620601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H7">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I7">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J7">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.7610682637922</v>
+        <v>54.08088833333333</v>
       </c>
       <c r="N7">
-        <v>45.7610682637922</v>
+        <v>162.242665</v>
       </c>
       <c r="O7">
-        <v>0.5183735547398972</v>
+        <v>0.5501595266871954</v>
       </c>
       <c r="P7">
-        <v>0.5183735547398972</v>
+        <v>0.5736166769323061</v>
       </c>
       <c r="Q7">
-        <v>838.1305118154635</v>
+        <v>1125.571738255142</v>
       </c>
       <c r="R7">
-        <v>838.1305118154635</v>
+        <v>10130.14564429627</v>
       </c>
       <c r="S7">
-        <v>0.2812023430159569</v>
+        <v>0.3102291942446463</v>
       </c>
       <c r="T7">
-        <v>0.2812023430159569</v>
+        <v>0.3317958478011317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H8">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I8">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J8">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.5263865217039</v>
+        <v>14.22188666666667</v>
       </c>
       <c r="N8">
-        <v>13.5263865217039</v>
+        <v>42.66566</v>
       </c>
       <c r="O8">
-        <v>0.1532245930890868</v>
+        <v>0.1446778460610026</v>
       </c>
       <c r="P8">
-        <v>0.1532245930890868</v>
+        <v>0.1508464749905558</v>
       </c>
       <c r="Q8">
-        <v>247.7406600977369</v>
+        <v>295.9965006122334</v>
       </c>
       <c r="R8">
-        <v>247.7406600977369</v>
+        <v>2663.9685055101</v>
       </c>
       <c r="S8">
-        <v>0.08311981618340371</v>
+        <v>0.081582321910923</v>
       </c>
       <c r="T8">
-        <v>0.08311981618340371</v>
+        <v>0.08725379869527435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H9">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I9">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J9">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.4743414762298</v>
+        <v>7.863198666666666</v>
       </c>
       <c r="N9">
-        <v>7.4743414762298</v>
+        <v>23.589596</v>
       </c>
       <c r="O9">
-        <v>0.08466806190009199</v>
+        <v>0.07999154211441335</v>
       </c>
       <c r="P9">
-        <v>0.08466806190009199</v>
+        <v>0.08340214127828596</v>
       </c>
       <c r="Q9">
-        <v>136.8952667547909</v>
+        <v>163.6547487336733</v>
       </c>
       <c r="R9">
-        <v>136.8952667547909</v>
+        <v>1472.89273860306</v>
       </c>
       <c r="S9">
-        <v>0.04592992286590013</v>
+        <v>0.0451063926966235</v>
       </c>
       <c r="T9">
-        <v>0.04592992286590013</v>
+        <v>0.04824211932235078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H10">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I10">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J10">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94805548262573</v>
+        <v>10.07488533333333</v>
       </c>
       <c r="N10">
-        <v>9.94805548262573</v>
+        <v>30.224656</v>
       </c>
       <c r="O10">
-        <v>0.1126898710832473</v>
+        <v>0.102490811767936</v>
       </c>
       <c r="P10">
-        <v>0.1126898710832473</v>
+        <v>0.1068607122309171</v>
       </c>
       <c r="Q10">
-        <v>182.2022332424191</v>
+        <v>209.6860193469066</v>
       </c>
       <c r="R10">
-        <v>182.2022332424191</v>
+        <v>1887.17417412216</v>
       </c>
       <c r="S10">
-        <v>0.06113092670916749</v>
+        <v>0.05779349517712629</v>
       </c>
       <c r="T10">
-        <v>0.06113092670916749</v>
+        <v>0.06181120953614488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H11">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I11">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J11">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.5683172427866</v>
+        <v>12.059517</v>
       </c>
       <c r="N11">
-        <v>11.5683172427866</v>
+        <v>24.119034</v>
       </c>
       <c r="O11">
-        <v>0.1310439191876766</v>
+        <v>0.1226802733694528</v>
       </c>
       <c r="P11">
-        <v>0.1310439191876766</v>
+        <v>0.08527399456793505</v>
       </c>
       <c r="Q11">
-        <v>211.8779132438221</v>
+        <v>250.991652144165</v>
       </c>
       <c r="R11">
-        <v>211.8779132438221</v>
+        <v>1505.94991286499</v>
       </c>
       <c r="S11">
-        <v>0.0710874557095383</v>
+        <v>0.06917812109206196</v>
       </c>
       <c r="T11">
-        <v>0.0710874557095383</v>
+        <v>0.04932485135259779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.71127795705789</v>
+        <v>0.4470076666666667</v>
       </c>
       <c r="H12">
-        <v>2.71127795705789</v>
+        <v>1.341023</v>
       </c>
       <c r="I12">
-        <v>0.08030353131713384</v>
+        <v>0.01211098972683725</v>
       </c>
       <c r="J12">
-        <v>0.08030353131713384</v>
+        <v>0.01242323745145536</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.7610682637922</v>
+        <v>54.08088833333333</v>
       </c>
       <c r="N12">
-        <v>45.7610682637922</v>
+        <v>162.242665</v>
       </c>
       <c r="O12">
-        <v>0.5183735547398972</v>
+        <v>0.5501595266871954</v>
       </c>
       <c r="P12">
-        <v>0.5183735547398972</v>
+        <v>0.5736166769323061</v>
       </c>
       <c r="Q12">
-        <v>124.0709756750412</v>
+        <v>24.17457170514389</v>
       </c>
       <c r="R12">
-        <v>124.0709756750412</v>
+        <v>217.571145346295</v>
       </c>
       <c r="S12">
-        <v>0.04162722698702933</v>
+        <v>0.006662976375830265</v>
       </c>
       <c r="T12">
-        <v>0.04162722698702933</v>
+        <v>0.007126176183644798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.71127795705789</v>
+        <v>0.4470076666666667</v>
       </c>
       <c r="H13">
-        <v>2.71127795705789</v>
+        <v>1.341023</v>
       </c>
       <c r="I13">
-        <v>0.08030353131713384</v>
+        <v>0.01211098972683725</v>
       </c>
       <c r="J13">
-        <v>0.08030353131713384</v>
+        <v>0.01242323745145536</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.5263865217039</v>
+        <v>14.22188666666667</v>
       </c>
       <c r="N13">
-        <v>13.5263865217039</v>
+        <v>42.66566</v>
       </c>
       <c r="O13">
-        <v>0.1532245930890868</v>
+        <v>0.1446778460610026</v>
       </c>
       <c r="P13">
-        <v>0.1532245930890868</v>
+        <v>0.1508464749905558</v>
       </c>
       <c r="Q13">
-        <v>36.67379361494073</v>
+        <v>6.357292374464445</v>
       </c>
       <c r="R13">
-        <v>36.67379361494073</v>
+        <v>57.21563137018001</v>
       </c>
       <c r="S13">
-        <v>0.01230447590968457</v>
+        <v>0.001752191907345743</v>
       </c>
       <c r="T13">
-        <v>0.01230447590968457</v>
+        <v>0.001874001577522697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.71127795705789</v>
+        <v>0.4470076666666667</v>
       </c>
       <c r="H14">
-        <v>2.71127795705789</v>
+        <v>1.341023</v>
       </c>
       <c r="I14">
-        <v>0.08030353131713384</v>
+        <v>0.01211098972683725</v>
       </c>
       <c r="J14">
-        <v>0.08030353131713384</v>
+        <v>0.01242323745145536</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.4743414762298</v>
+        <v>7.863198666666666</v>
       </c>
       <c r="N14">
-        <v>7.4743414762298</v>
+        <v>23.589596</v>
       </c>
       <c r="O14">
-        <v>0.08466806190009199</v>
+        <v>0.07999154211441335</v>
       </c>
       <c r="P14">
-        <v>0.08466806190009199</v>
+        <v>0.08340214127828596</v>
       </c>
       <c r="Q14">
-        <v>20.26501728802539</v>
+        <v>3.514910088523111</v>
       </c>
       <c r="R14">
-        <v>20.26501728802539</v>
+        <v>31.634190796708</v>
       </c>
       <c r="S14">
-        <v>0.006799144360355064</v>
+        <v>0.0009687767447815292</v>
       </c>
       <c r="T14">
-        <v>0.006799144360355064</v>
+        <v>0.001036124605059974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.71127795705789</v>
+        <v>0.4470076666666667</v>
       </c>
       <c r="H15">
-        <v>2.71127795705789</v>
+        <v>1.341023</v>
       </c>
       <c r="I15">
-        <v>0.08030353131713384</v>
+        <v>0.01211098972683725</v>
       </c>
       <c r="J15">
-        <v>0.08030353131713384</v>
+        <v>0.01242323745145536</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.94805548262573</v>
+        <v>10.07488533333333</v>
       </c>
       <c r="N15">
-        <v>9.94805548262573</v>
+        <v>30.224656</v>
       </c>
       <c r="O15">
-        <v>0.1126898710832473</v>
+        <v>0.102490811767936</v>
       </c>
       <c r="P15">
-        <v>0.1126898710832473</v>
+        <v>0.1068607122309171</v>
       </c>
       <c r="Q15">
-        <v>26.97194354563203</v>
+        <v>4.503550984787555</v>
       </c>
       <c r="R15">
-        <v>26.97194354563203</v>
+        <v>40.53195886308799</v>
       </c>
       <c r="S15">
-        <v>0.009049394591657328</v>
+        <v>0.001241265168416683</v>
       </c>
       <c r="T15">
-        <v>0.009049394591657328</v>
+        <v>0.001327556002276324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.341023</v>
+      </c>
+      <c r="I16">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J16">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.059517</v>
+      </c>
+      <c r="N16">
+        <v>24.119034</v>
+      </c>
+      <c r="O16">
+        <v>0.1226802733694528</v>
+      </c>
+      <c r="P16">
+        <v>0.08527399456793505</v>
+      </c>
+      <c r="Q16">
+        <v>5.390696555297001</v>
+      </c>
+      <c r="R16">
+        <v>32.344179331782</v>
+      </c>
+      <c r="S16">
+        <v>0.001485779530463029</v>
+      </c>
+      <c r="T16">
+        <v>0.001059379082951572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.158782</v>
+      </c>
+      <c r="I17">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J17">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.08088833333333</v>
+      </c>
+      <c r="N17">
+        <v>162.242665</v>
+      </c>
+      <c r="O17">
+        <v>0.5501595266871954</v>
+      </c>
+      <c r="P17">
+        <v>0.5736166769323061</v>
+      </c>
+      <c r="Q17">
+        <v>2.862357203781111</v>
+      </c>
+      <c r="R17">
+        <v>25.76121483403</v>
+      </c>
+      <c r="S17">
+        <v>0.0007889206336558591</v>
+      </c>
+      <c r="T17">
+        <v>0.000843765175385872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.158782</v>
+      </c>
+      <c r="I18">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J18">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.22188666666667</v>
+      </c>
+      <c r="N18">
+        <v>42.66566</v>
+      </c>
+      <c r="O18">
+        <v>0.1446778460610026</v>
+      </c>
+      <c r="P18">
+        <v>0.1508464749905558</v>
+      </c>
+      <c r="Q18">
+        <v>0.7527265362355556</v>
+      </c>
+      <c r="R18">
+        <v>6.774538826120001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002074658938975482</v>
+      </c>
+      <c r="T18">
+        <v>0.0002218886018227942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.158782</v>
+      </c>
+      <c r="I19">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J19">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.863198666666666</v>
+      </c>
+      <c r="N19">
+        <v>23.589596</v>
+      </c>
+      <c r="O19">
+        <v>0.07999154211441335</v>
+      </c>
+      <c r="P19">
+        <v>0.08340214127828596</v>
+      </c>
+      <c r="Q19">
+        <v>0.4161781368968889</v>
+      </c>
+      <c r="R19">
+        <v>3.745603232072</v>
+      </c>
+      <c r="S19">
+        <v>0.0001147066896614754</v>
+      </c>
+      <c r="T19">
+        <v>0.0001226809212374678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.158782</v>
+      </c>
+      <c r="I20">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J20">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.07488533333333</v>
+      </c>
+      <c r="N20">
+        <v>30.224656</v>
+      </c>
+      <c r="O20">
+        <v>0.102490811767936</v>
+      </c>
+      <c r="P20">
+        <v>0.1068607122309171</v>
+      </c>
+      <c r="Q20">
+        <v>0.5332368143324444</v>
+      </c>
+      <c r="R20">
+        <v>4.799131328992</v>
+      </c>
+      <c r="S20">
+        <v>0.0001469703099585449</v>
+      </c>
+      <c r="T20">
+        <v>0.0001571874584950737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.158782</v>
+      </c>
+      <c r="I21">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J21">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.059517</v>
+      </c>
+      <c r="N21">
+        <v>24.119034</v>
+      </c>
+      <c r="O21">
+        <v>0.1226802733694528</v>
+      </c>
+      <c r="P21">
+        <v>0.08527399456793505</v>
+      </c>
+      <c r="Q21">
+        <v>0.638278076098</v>
+      </c>
+      <c r="R21">
+        <v>3.829668456588</v>
+      </c>
+      <c r="S21">
+        <v>0.0001759216996322811</v>
+      </c>
+      <c r="T21">
+        <v>0.0001254343359876874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.7830505</v>
+      </c>
+      <c r="H22">
+        <v>5.566101</v>
+      </c>
+      <c r="I22">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J22">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>54.08088833333333</v>
+      </c>
+      <c r="N22">
+        <v>162.242665</v>
+      </c>
+      <c r="O22">
+        <v>0.5501595266871954</v>
+      </c>
+      <c r="P22">
+        <v>0.5736166769323061</v>
+      </c>
+      <c r="Q22">
+        <v>150.5098433165275</v>
+      </c>
+      <c r="R22">
+        <v>903.0590598991649</v>
+      </c>
+      <c r="S22">
+        <v>0.04148340423894879</v>
+      </c>
+      <c r="T22">
+        <v>0.02957817754204178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.7830505</v>
+      </c>
+      <c r="H23">
+        <v>5.566101</v>
+      </c>
+      <c r="I23">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J23">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.22188666666667</v>
+      </c>
+      <c r="N23">
+        <v>42.66566</v>
+      </c>
+      <c r="O23">
+        <v>0.1446778460610026</v>
+      </c>
+      <c r="P23">
+        <v>0.1508464749905558</v>
+      </c>
+      <c r="Q23">
+        <v>39.58022879861</v>
+      </c>
+      <c r="R23">
+        <v>237.48137279166</v>
+      </c>
+      <c r="S23">
+        <v>0.01090907142644352</v>
+      </c>
+      <c r="T23">
+        <v>0.007778302128040058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="H16">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="I16">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="J16">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.5683172427866</v>
-      </c>
-      <c r="N16">
-        <v>11.5683172427866</v>
-      </c>
-      <c r="O16">
-        <v>0.1310439191876766</v>
-      </c>
-      <c r="P16">
-        <v>0.1310439191876766</v>
-      </c>
-      <c r="Q16">
-        <v>31.36492354062002</v>
-      </c>
-      <c r="R16">
-        <v>31.36492354062002</v>
-      </c>
-      <c r="S16">
-        <v>0.01052328946840755</v>
-      </c>
-      <c r="T16">
-        <v>0.01052328946840755</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.7830505</v>
+      </c>
+      <c r="H24">
+        <v>5.566101</v>
+      </c>
+      <c r="I24">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J24">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.863198666666666</v>
+      </c>
+      <c r="N24">
+        <v>23.589596</v>
+      </c>
+      <c r="O24">
+        <v>0.07999154211441335</v>
+      </c>
+      <c r="P24">
+        <v>0.08340214127828596</v>
+      </c>
+      <c r="Q24">
+        <v>21.883678980866</v>
+      </c>
+      <c r="R24">
+        <v>131.302073885196</v>
+      </c>
+      <c r="S24">
+        <v>0.006031562331039677</v>
+      </c>
+      <c r="T24">
+        <v>0.004300578140978136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.7830505</v>
+      </c>
+      <c r="H25">
+        <v>5.566101</v>
+      </c>
+      <c r="I25">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J25">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.07488533333333</v>
+      </c>
+      <c r="N25">
+        <v>30.224656</v>
+      </c>
+      <c r="O25">
+        <v>0.102490811767936</v>
+      </c>
+      <c r="P25">
+        <v>0.1068607122309171</v>
+      </c>
+      <c r="Q25">
+        <v>28.038914664376</v>
+      </c>
+      <c r="R25">
+        <v>168.233487986256</v>
+      </c>
+      <c r="S25">
+        <v>0.007728063532679083</v>
+      </c>
+      <c r="T25">
+        <v>0.005510204367729895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.7830505</v>
+      </c>
+      <c r="H26">
+        <v>5.566101</v>
+      </c>
+      <c r="I26">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J26">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.059517</v>
+      </c>
+      <c r="N26">
+        <v>24.119034</v>
+      </c>
+      <c r="O26">
+        <v>0.1226802733694528</v>
+      </c>
+      <c r="P26">
+        <v>0.08527399456793505</v>
+      </c>
+      <c r="Q26">
+        <v>33.5622448166085</v>
+      </c>
+      <c r="R26">
+        <v>134.248979266434</v>
+      </c>
+      <c r="S26">
+        <v>0.009250399430460693</v>
+      </c>
+      <c r="T26">
+        <v>0.004397099060191979</v>
       </c>
     </row>
   </sheetData>
